--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理行政一审案件收结案情况/人民法院审理行政一审案件收案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理行政一审案件收结案情况/人民法院审理行政一审案件收案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,919 +503,553 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3568</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2619</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10553</v>
+      </c>
+      <c r="E2" t="n">
+        <v>41909</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9363</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1825</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23218</v>
+      </c>
+      <c r="I2" t="n">
+        <v>24975</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2723</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1865</v>
+      </c>
+      <c r="L2" t="n">
+        <v>398</v>
+      </c>
       <c r="M2" t="n">
-        <v>85760</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>129133</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6117</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3247</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2445</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10153</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43826</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11121</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1808</v>
+      </c>
+      <c r="H3" t="n">
+        <v>24928</v>
+      </c>
+      <c r="I3" t="n">
+        <v>24574</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3191</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2227</v>
+      </c>
+      <c r="L3" t="n">
+        <v>405</v>
+      </c>
       <c r="M3" t="n">
-        <v>100921</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>136353</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8428</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5138</v>
+        <v>2336</v>
       </c>
       <c r="C4" t="n">
-        <v>2184</v>
+        <v>2518</v>
       </c>
       <c r="D4" t="n">
-        <v>11707</v>
+        <v>10750</v>
       </c>
       <c r="E4" t="n">
-        <v>20460</v>
+        <v>41140</v>
       </c>
       <c r="F4" t="n">
-        <v>3587</v>
+        <v>11562</v>
       </c>
       <c r="G4" t="n">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="H4" t="n">
-        <v>13464</v>
+        <v>20149</v>
       </c>
       <c r="I4" t="n">
-        <v>16287</v>
+        <v>23385</v>
       </c>
       <c r="J4" t="n">
-        <v>2892</v>
+        <v>4219</v>
       </c>
       <c r="K4" t="n">
-        <v>1074</v>
+        <v>1672</v>
       </c>
       <c r="L4" t="n">
-        <v>1496</v>
+        <v>436</v>
       </c>
       <c r="M4" t="n">
-        <v>80728</v>
+        <v>129583</v>
       </c>
       <c r="N4" t="n">
-        <v>1389</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4976</v>
+        <v>2116</v>
       </c>
       <c r="C5" t="n">
-        <v>2570</v>
+        <v>2497</v>
       </c>
       <c r="D5" t="n">
-        <v>10816</v>
+        <v>10533</v>
       </c>
       <c r="E5" t="n">
-        <v>22802</v>
+        <v>43599</v>
       </c>
       <c r="F5" t="n">
-        <v>4047</v>
+        <v>11704</v>
       </c>
       <c r="G5" t="n">
-        <v>806</v>
+        <v>927</v>
       </c>
       <c r="H5" t="n">
-        <v>16750</v>
+        <v>18394</v>
       </c>
       <c r="I5" t="n">
-        <v>19811</v>
+        <v>19972</v>
       </c>
       <c r="J5" t="n">
-        <v>2715</v>
+        <v>3785</v>
       </c>
       <c r="K5" t="n">
-        <v>655</v>
+        <v>1102</v>
       </c>
       <c r="L5" t="n">
-        <v>803</v>
+        <v>362</v>
       </c>
       <c r="M5" t="n">
-        <v>87919</v>
+        <v>123194</v>
       </c>
       <c r="N5" t="n">
-        <v>1168</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4821</v>
+        <v>2444</v>
       </c>
       <c r="C6" t="n">
-        <v>3424</v>
+        <v>2188</v>
       </c>
       <c r="D6" t="n">
-        <v>11199</v>
+        <v>14497</v>
       </c>
       <c r="E6" t="n">
-        <v>23012</v>
+        <v>57463</v>
       </c>
       <c r="F6" t="n">
-        <v>5559</v>
+        <v>12291</v>
       </c>
       <c r="G6" t="n">
-        <v>1427</v>
+        <v>596</v>
       </c>
       <c r="H6" t="n">
-        <v>17582</v>
+        <v>19345</v>
       </c>
       <c r="I6" t="n">
-        <v>18973</v>
+        <v>22406</v>
       </c>
       <c r="J6" t="n">
-        <v>3389</v>
+        <v>4434</v>
       </c>
       <c r="K6" t="n">
-        <v>694</v>
+        <v>809</v>
       </c>
       <c r="L6" t="n">
-        <v>1032</v>
+        <v>398</v>
       </c>
       <c r="M6" t="n">
-        <v>92613</v>
+        <v>141880</v>
       </c>
       <c r="N6" t="n">
-        <v>1501</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3966</v>
+        <v>5423</v>
       </c>
       <c r="C7" t="n">
-        <v>2945</v>
+        <v>3187</v>
       </c>
       <c r="D7" t="n">
-        <v>9514</v>
+        <v>24974</v>
       </c>
       <c r="E7" t="n">
-        <v>25026</v>
+        <v>97185</v>
       </c>
       <c r="F7" t="n">
-        <v>7171</v>
+        <v>16467</v>
       </c>
       <c r="G7" t="n">
-        <v>930</v>
+        <v>781</v>
       </c>
       <c r="H7" t="n">
-        <v>18974</v>
+        <v>28180</v>
       </c>
       <c r="I7" t="n">
-        <v>19197</v>
+        <v>35726</v>
       </c>
       <c r="J7" t="n">
-        <v>2970</v>
+        <v>4476</v>
       </c>
       <c r="K7" t="n">
-        <v>1190</v>
+        <v>1175</v>
       </c>
       <c r="L7" t="n">
-        <v>815</v>
+        <v>636</v>
       </c>
       <c r="M7" t="n">
-        <v>96178</v>
+        <v>220398</v>
       </c>
       <c r="N7" t="n">
-        <v>3480</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2752</v>
+        <v>6343</v>
       </c>
       <c r="C8" t="n">
-        <v>3460</v>
+        <v>3233</v>
       </c>
       <c r="D8" t="n">
-        <v>9313</v>
+        <v>23785</v>
       </c>
       <c r="E8" t="n">
-        <v>23277</v>
+        <v>104227</v>
       </c>
       <c r="F8" t="n">
-        <v>7411</v>
+        <v>15360</v>
       </c>
       <c r="G8" t="n">
-        <v>1285</v>
+        <v>794</v>
       </c>
       <c r="H8" t="n">
-        <v>20752</v>
+        <v>27989</v>
       </c>
       <c r="I8" t="n">
-        <v>20693</v>
+        <v>35890</v>
       </c>
       <c r="J8" t="n">
-        <v>2985</v>
+        <v>4463</v>
       </c>
       <c r="K8" t="n">
-        <v>1179</v>
+        <v>1218</v>
       </c>
       <c r="L8" t="n">
-        <v>359</v>
+        <v>683</v>
       </c>
       <c r="M8" t="n">
-        <v>95617</v>
+        <v>225485</v>
       </c>
       <c r="N8" t="n">
-        <v>2151</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2738</v>
+        <v>7098</v>
       </c>
       <c r="C9" t="n">
-        <v>4160</v>
+        <v>1846</v>
       </c>
       <c r="D9" t="n">
-        <v>9773</v>
+        <v>20402</v>
       </c>
       <c r="E9" t="n">
-        <v>26594</v>
+        <v>104288</v>
       </c>
       <c r="F9" t="n">
-        <v>7839</v>
+        <v>14447</v>
       </c>
       <c r="G9" t="n">
-        <v>1091</v>
+        <v>525</v>
       </c>
       <c r="H9" t="n">
-        <v>19875</v>
+        <v>24963</v>
       </c>
       <c r="I9" t="n">
-        <v>21601</v>
+        <v>34085</v>
       </c>
       <c r="J9" t="n">
-        <v>2904</v>
+        <v>4830</v>
       </c>
       <c r="K9" t="n">
-        <v>2604</v>
+        <v>981</v>
       </c>
       <c r="L9" t="n">
-        <v>306</v>
+        <v>555</v>
       </c>
       <c r="M9" t="n">
-        <v>101510</v>
+        <v>230432</v>
       </c>
       <c r="N9" t="n">
-        <v>2025</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3657</v>
+        <v>9103</v>
       </c>
       <c r="C10" t="n">
-        <v>3527</v>
+        <v>1532</v>
       </c>
       <c r="D10" t="n">
-        <v>10347</v>
+        <v>18676</v>
       </c>
       <c r="E10" t="n">
-        <v>27227</v>
+        <v>140417</v>
       </c>
       <c r="F10" t="n">
-        <v>7911</v>
+        <v>15719</v>
       </c>
       <c r="G10" t="n">
-        <v>865</v>
+        <v>479</v>
       </c>
       <c r="H10" t="n">
-        <v>18902</v>
+        <v>27995</v>
       </c>
       <c r="I10" t="n">
-        <v>28324</v>
+        <v>34664</v>
       </c>
       <c r="J10" t="n">
-        <v>2953</v>
+        <v>5603</v>
       </c>
       <c r="K10" t="n">
-        <v>1583</v>
+        <v>1499</v>
       </c>
       <c r="L10" t="n">
-        <v>334</v>
+        <v>641</v>
       </c>
       <c r="M10" t="n">
-        <v>108398</v>
+        <v>256656</v>
       </c>
       <c r="N10" t="n">
-        <v>2768</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3548</v>
+        <v>14376</v>
       </c>
       <c r="C11" t="n">
-        <v>2498</v>
+        <v>2117</v>
       </c>
       <c r="D11" t="n">
-        <v>9601</v>
+        <v>21572</v>
       </c>
       <c r="E11" t="n">
-        <v>39451</v>
+        <v>135855</v>
       </c>
       <c r="F11" t="n">
-        <v>9172</v>
+        <v>19375</v>
       </c>
       <c r="G11" t="n">
-        <v>1529</v>
+        <v>918</v>
       </c>
       <c r="H11" t="n">
-        <v>21150</v>
+        <v>30506</v>
       </c>
       <c r="I11" t="n">
-        <v>22493</v>
+        <v>45626</v>
       </c>
       <c r="J11" t="n">
-        <v>3142</v>
+        <v>6086</v>
       </c>
       <c r="K11" t="n">
-        <v>2647</v>
+        <v>2146</v>
       </c>
       <c r="L11" t="n">
-        <v>293</v>
+        <v>659</v>
       </c>
       <c r="M11" t="n">
-        <v>120312</v>
+        <v>279574</v>
       </c>
       <c r="N11" t="n">
-        <v>4788</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3568</v>
+        <v>15751</v>
       </c>
       <c r="C12" t="n">
-        <v>2619</v>
+        <v>2882</v>
       </c>
       <c r="D12" t="n">
-        <v>10553</v>
+        <v>23406</v>
       </c>
       <c r="E12" t="n">
-        <v>41909</v>
+        <v>90744</v>
       </c>
       <c r="F12" t="n">
-        <v>9363</v>
+        <v>19843</v>
       </c>
       <c r="G12" t="n">
-        <v>1825</v>
+        <v>1171</v>
       </c>
       <c r="H12" t="n">
-        <v>23218</v>
+        <v>41500</v>
       </c>
       <c r="I12" t="n">
-        <v>24975</v>
+        <v>56535</v>
       </c>
       <c r="J12" t="n">
-        <v>2723</v>
+        <v>5361</v>
       </c>
       <c r="K12" t="n">
-        <v>1865</v>
+        <v>2082</v>
       </c>
       <c r="L12" t="n">
-        <v>398</v>
+        <v>688</v>
       </c>
       <c r="M12" t="n">
-        <v>129133</v>
+        <v>260220</v>
       </c>
       <c r="N12" t="n">
-        <v>6117</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3247</v>
+        <v>24654</v>
       </c>
       <c r="C13" t="n">
-        <v>2445</v>
+        <v>2906</v>
       </c>
       <c r="D13" t="n">
-        <v>10153</v>
+        <v>32292</v>
       </c>
       <c r="E13" t="n">
-        <v>43826</v>
+        <v>101920</v>
       </c>
       <c r="F13" t="n">
-        <v>11121</v>
+        <v>25858</v>
       </c>
       <c r="G13" t="n">
-        <v>1808</v>
+        <v>1364</v>
       </c>
       <c r="H13" t="n">
-        <v>24928</v>
+        <v>51835</v>
       </c>
       <c r="I13" t="n">
-        <v>24574</v>
+        <v>67195</v>
       </c>
       <c r="J13" t="n">
-        <v>3191</v>
+        <v>7834</v>
       </c>
       <c r="K13" t="n">
-        <v>2227</v>
+        <v>2943</v>
       </c>
       <c r="L13" t="n">
-        <v>405</v>
+        <v>1055</v>
       </c>
       <c r="M13" t="n">
-        <v>136353</v>
+        <v>319977</v>
       </c>
       <c r="N13" t="n">
-        <v>8428</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2336</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2518</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10750</v>
-      </c>
-      <c r="E14" t="n">
-        <v>41140</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11562</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1035</v>
-      </c>
-      <c r="H14" t="n">
-        <v>20149</v>
-      </c>
-      <c r="I14" t="n">
-        <v>23385</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4219</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1672</v>
-      </c>
-      <c r="L14" t="n">
-        <v>436</v>
-      </c>
-      <c r="M14" t="n">
-        <v>129583</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10381</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2116</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2497</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10533</v>
-      </c>
-      <c r="E15" t="n">
-        <v>43599</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11704</v>
-      </c>
-      <c r="G15" t="n">
-        <v>927</v>
-      </c>
-      <c r="H15" t="n">
-        <v>18394</v>
-      </c>
-      <c r="I15" t="n">
-        <v>19972</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3785</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1102</v>
-      </c>
-      <c r="L15" t="n">
-        <v>362</v>
-      </c>
-      <c r="M15" t="n">
-        <v>123194</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8203</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2444</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2188</v>
-      </c>
-      <c r="D16" t="n">
-        <v>14497</v>
-      </c>
-      <c r="E16" t="n">
-        <v>57463</v>
-      </c>
-      <c r="F16" t="n">
-        <v>12291</v>
-      </c>
-      <c r="G16" t="n">
-        <v>596</v>
-      </c>
-      <c r="H16" t="n">
-        <v>19345</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22406</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4434</v>
-      </c>
-      <c r="K16" t="n">
-        <v>809</v>
-      </c>
-      <c r="L16" t="n">
-        <v>398</v>
-      </c>
-      <c r="M16" t="n">
-        <v>141880</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5009</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5423</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3187</v>
-      </c>
-      <c r="D17" t="n">
-        <v>24974</v>
-      </c>
-      <c r="E17" t="n">
-        <v>97185</v>
-      </c>
-      <c r="F17" t="n">
-        <v>16467</v>
-      </c>
-      <c r="G17" t="n">
-        <v>781</v>
-      </c>
-      <c r="H17" t="n">
-        <v>28180</v>
-      </c>
-      <c r="I17" t="n">
-        <v>35726</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4476</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1175</v>
-      </c>
-      <c r="L17" t="n">
-        <v>636</v>
-      </c>
-      <c r="M17" t="n">
-        <v>220398</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6343</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3233</v>
-      </c>
-      <c r="D18" t="n">
-        <v>23785</v>
-      </c>
-      <c r="E18" t="n">
-        <v>104227</v>
-      </c>
-      <c r="F18" t="n">
-        <v>15360</v>
-      </c>
-      <c r="G18" t="n">
-        <v>794</v>
-      </c>
-      <c r="H18" t="n">
-        <v>27989</v>
-      </c>
-      <c r="I18" t="n">
-        <v>35890</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4463</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1218</v>
-      </c>
-      <c r="L18" t="n">
-        <v>683</v>
-      </c>
-      <c r="M18" t="n">
-        <v>225485</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7098</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1846</v>
-      </c>
-      <c r="D19" t="n">
-        <v>20402</v>
-      </c>
-      <c r="E19" t="n">
-        <v>104288</v>
-      </c>
-      <c r="F19" t="n">
-        <v>14447</v>
-      </c>
-      <c r="G19" t="n">
-        <v>525</v>
-      </c>
-      <c r="H19" t="n">
-        <v>24963</v>
-      </c>
-      <c r="I19" t="n">
-        <v>34085</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4830</v>
-      </c>
-      <c r="K19" t="n">
-        <v>981</v>
-      </c>
-      <c r="L19" t="n">
-        <v>555</v>
-      </c>
-      <c r="M19" t="n">
-        <v>230432</v>
-      </c>
-      <c r="N19" t="n">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9103</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1532</v>
-      </c>
-      <c r="D20" t="n">
-        <v>18676</v>
-      </c>
-      <c r="E20" t="n">
-        <v>140417</v>
-      </c>
-      <c r="F20" t="n">
-        <v>15719</v>
-      </c>
-      <c r="G20" t="n">
-        <v>479</v>
-      </c>
-      <c r="H20" t="n">
-        <v>27995</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34664</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5603</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1499</v>
-      </c>
-      <c r="L20" t="n">
-        <v>641</v>
-      </c>
-      <c r="M20" t="n">
-        <v>256656</v>
-      </c>
-      <c r="N20" t="n">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>14376</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2117</v>
-      </c>
-      <c r="D21" t="n">
-        <v>21572</v>
-      </c>
-      <c r="E21" t="n">
-        <v>135855</v>
-      </c>
-      <c r="F21" t="n">
-        <v>19375</v>
-      </c>
-      <c r="G21" t="n">
-        <v>918</v>
-      </c>
-      <c r="H21" t="n">
-        <v>30506</v>
-      </c>
-      <c r="I21" t="n">
-        <v>45626</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6086</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2146</v>
-      </c>
-      <c r="L21" t="n">
-        <v>659</v>
-      </c>
-      <c r="M21" t="n">
-        <v>279574</v>
-      </c>
-      <c r="N21" t="n">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>15751</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2882</v>
-      </c>
-      <c r="D22" t="n">
-        <v>23406</v>
-      </c>
-      <c r="E22" t="n">
-        <v>90744</v>
-      </c>
-      <c r="F22" t="n">
-        <v>19843</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1171</v>
-      </c>
-      <c r="H22" t="n">
-        <v>41500</v>
-      </c>
-      <c r="I22" t="n">
-        <v>56535</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5361</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2082</v>
-      </c>
-      <c r="L22" t="n">
-        <v>688</v>
-      </c>
-      <c r="M22" t="n">
-        <v>260220</v>
-      </c>
-      <c r="N22" t="n">
-        <v>257</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
